--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A97BB-C1F1-4C74-BF14-78E2163C582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF7268-F9A0-49F4-BFC3-0F638FD484FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>494</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
